--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnyson/Desktop/Cover Letter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnyson/Desktop/cover-letter-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80225A-0B61-4748-8AE9-A964F105287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF0184-B982-8440-AD55-C20C5B721098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36100" yWindow="-15480" windowWidth="28040" windowHeight="17440" xr2:uid="{6EC86478-E49A-964B-AA76-033271806364}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{6EC86478-E49A-964B-AA76-033271806364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>company</t>
   </si>
@@ -95,23 +95,214 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Other 1</t>
-  </si>
-  <si>
-    <t>Other 2</t>
-  </si>
-  <si>
-    <t>Other 3</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>hmanager</t>
+  </si>
+  <si>
+    <t>convo1</t>
+  </si>
+  <si>
+    <t>convo2</t>
+  </si>
+  <si>
+    <t>Contact 1</t>
+  </si>
+  <si>
+    <t>Referral 1</t>
+  </si>
+  <si>
+    <t>Hmanager 1</t>
+  </si>
+  <si>
+    <t>Convo 2-1</t>
+  </si>
+  <si>
+    <t>Convo 1-1</t>
+  </si>
+  <si>
+    <t>Convo 2-2</t>
+  </si>
+  <si>
+    <t>Convo 2-3</t>
+  </si>
+  <si>
+    <t>Convo 1-2</t>
+  </si>
+  <si>
+    <t>Convo 1-3</t>
+  </si>
+  <si>
+    <t>Hmanager 2</t>
+  </si>
+  <si>
+    <t>Hmanager 3</t>
+  </si>
+  <si>
+    <t>Referral 2</t>
+  </si>
+  <si>
+    <t>Referral 3</t>
+  </si>
+  <si>
+    <t>Contact 2</t>
+  </si>
+  <si>
+    <t>Contact 3</t>
+  </si>
+  <si>
+    <t>123 Candelfield Lane, New York, NY 10004</t>
+  </si>
+  <si>
+    <t>320 Main Street, Fort Lee, NJ 07024</t>
+  </si>
+  <si>
+    <t>alongside</t>
+  </si>
+  <si>
+    <t>70 Washington Square S, New York, NY 10012</t>
+  </si>
+  <si>
+    <t>May 33, 2023</t>
+  </si>
+  <si>
+    <t>Company 4</t>
+  </si>
+  <si>
+    <t>44 West 4th Street, New York, NY 10012</t>
+  </si>
+  <si>
+    <t>Role 4</t>
+  </si>
+  <si>
+    <t>Role 5</t>
+  </si>
+  <si>
+    <t>Event 4</t>
+  </si>
+  <si>
+    <t>Contact 4</t>
+  </si>
+  <si>
+    <t>Referral 4</t>
+  </si>
+  <si>
+    <t>Hmanager 4</t>
+  </si>
+  <si>
+    <t>Convo 1-4</t>
+  </si>
+  <si>
+    <t>Convo 2-4</t>
+  </si>
+  <si>
+    <t>Company 5</t>
+  </si>
+  <si>
+    <t>55 North Ave, 11002, New, York, NY 10012</t>
+  </si>
+  <si>
+    <t>Event 5</t>
+  </si>
+  <si>
+    <t>Contact 5</t>
+  </si>
+  <si>
+    <t>Referral 5</t>
+  </si>
+  <si>
+    <t>Hmanager 5</t>
+  </si>
+  <si>
+    <t>Convo 1-5</t>
+  </si>
+  <si>
+    <t>Convo 2-5</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>Other 1-1</t>
+  </si>
+  <si>
+    <t>Other 1-2</t>
+  </si>
+  <si>
+    <t>Other 1-3</t>
+  </si>
+  <si>
+    <t>Other 1-4</t>
+  </si>
+  <si>
+    <t>Other 1-5</t>
+  </si>
+  <si>
+    <t>Other 2-1</t>
+  </si>
+  <si>
+    <t>Other 2-2</t>
+  </si>
+  <si>
+    <t>Other 2-3</t>
+  </si>
+  <si>
+    <t>Other 2-4</t>
+  </si>
+  <si>
+    <t>Other 2-5</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Sallie Mae</t>
+  </si>
+  <si>
+    <t>Fankie Smize</t>
+  </si>
+  <si>
+    <t>Notorious BIG</t>
+  </si>
+  <si>
+    <t>Marshall Mathers</t>
+  </si>
+  <si>
+    <t>Marry Shelly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,8 +328,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,143 +651,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9EFF1-2E15-DC4B-BB3B-2F23AE98C381}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45074</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45074</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45074</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>